--- a/mall_admin_function.xlsx
+++ b/mall_admin_function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{876AF39E-F20A-4FA6-9A22-A4EDB9B78250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04713F28-E244-4F52-88F4-CECD0BA24C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1041,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,9 +1142,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1154,26 +1151,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1184,7 +1166,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1226,29 +1220,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1256,7 +1244,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1571,103 +1568,103 @@
       <c r="D1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B3" s="52"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B4" s="53"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="47" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B6" s="53"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B7" s="47">
+      <c r="B7" s="41">
         <v>1</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="24" t="s">
@@ -1968,10 +1965,10 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B19" s="41">
+      <c r="B19" s="45">
         <v>2</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="46" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="11"/>
@@ -2775,10 +2772,10 @@
       </c>
     </row>
     <row r="54" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B54" s="41">
+      <c r="B54" s="45">
         <v>3</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="46" t="s">
         <v>57</v>
       </c>
       <c r="D54" s="11"/>
@@ -2898,14 +2895,14 @@
       </c>
     </row>
     <row r="59" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B59" s="41">
+      <c r="B59" s="45">
         <v>5</v>
       </c>
-      <c r="C59" s="43" t="s">
+      <c r="C59" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="39" t="s">
+      <c r="D59" s="60"/>
+      <c r="E59" s="61" t="s">
         <v>65</v>
       </c>
       <c r="F59" s="12" t="s">
@@ -2927,8 +2924,8 @@
     <row r="60" spans="2:10" ht="17.25" customHeight="1">
       <c r="B60" s="42"/>
       <c r="C60" s="44"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="40"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="62"/>
       <c r="F60" s="12" t="s">
         <v>88</v>
       </c>
@@ -2948,8 +2945,8 @@
     <row r="61" spans="2:10" ht="17.25" customHeight="1">
       <c r="B61" s="42"/>
       <c r="C61" s="44"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="40"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="62"/>
       <c r="F61" s="12" t="s">
         <v>88</v>
       </c>
@@ -11445,6 +11442,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="B7:B18"/>
     <mergeCell ref="C7:C18"/>
@@ -11461,12 +11464,6 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11479,7 +11476,7 @@
   <dimension ref="B1:L999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
@@ -11502,105 +11499,105 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B3" s="52"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B4" s="53"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="47" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B6" s="53"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" customHeight="1">
       <c r="B7" s="63">
@@ -11626,8 +11623,8 @@
       <c r="J7" s="28"/>
     </row>
     <row r="8" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B8" s="62"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24" t="s">
         <v>96</v>
@@ -11645,8 +11642,8 @@
       <c r="J8" s="28"/>
     </row>
     <row r="9" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B9" s="62"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
         <v>97</v>
@@ -11663,28 +11660,28 @@
       <c r="I9" s="27"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="2:12" s="35" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B10" s="62"/>
-      <c r="C10" s="64"/>
+    <row r="10" spans="2:12" s="34" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>89</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="37"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="28"/>
     </row>
     <row r="11" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B11" s="62"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
         <v>98</v>
@@ -11702,8 +11699,8 @@
       <c r="J11" s="28"/>
     </row>
     <row r="12" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B12" s="62"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24" t="s">
         <v>99</v>
@@ -11721,8 +11718,8 @@
       <c r="J12" s="28"/>
     </row>
     <row r="13" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B13" s="62"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24" t="s">
         <v>100</v>
@@ -11740,8 +11737,8 @@
       <c r="J13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B14" s="62"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="11"/>
       <c r="E14" s="24" t="s">
         <v>101</v>
@@ -11759,10 +11756,10 @@
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B15" s="62"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="37" t="s">
         <v>102</v>
       </c>
       <c r="F15" s="25" t="s">
@@ -11778,8 +11775,10 @@
       <c r="J15" s="15"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="66"/>
-      <c r="C16" s="64" t="s">
+      <c r="B16" s="70">
+        <v>2</v>
+      </c>
+      <c r="C16" s="65" t="s">
         <v>103</v>
       </c>
       <c r="D16" s="11"/>
@@ -11799,8 +11798,8 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B17" s="66"/>
-      <c r="C17" s="64"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="11"/>
       <c r="E17" s="16" t="s">
         <v>105</v>
@@ -11818,8 +11817,8 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B18" s="66"/>
-      <c r="C18" s="64"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="11"/>
       <c r="E18" s="16" t="s">
         <v>106</v>
@@ -11837,8 +11836,8 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B19" s="66"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="11"/>
       <c r="E19" s="16" t="s">
         <v>107</v>
@@ -11856,8 +11855,10 @@
       <c r="J19" s="15"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B20" s="66"/>
-      <c r="C20" s="64" t="s">
+      <c r="B20" s="70">
+        <v>3</v>
+      </c>
+      <c r="C20" s="65" t="s">
         <v>108</v>
       </c>
       <c r="D20" s="11"/>
@@ -11877,8 +11878,8 @@
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B21" s="66"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="11"/>
       <c r="E21" s="17" t="s">
         <v>113</v>
@@ -11896,8 +11897,8 @@
       <c r="J21" s="15"/>
     </row>
     <row r="22" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B22" s="66"/>
-      <c r="C22" s="64"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="11"/>
       <c r="E22" s="17" t="s">
         <v>111</v>
@@ -11914,30 +11915,32 @@
       <c r="I22" s="14"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="2:10" s="35" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B23" s="66"/>
-      <c r="C23" s="64" t="s">
+    <row r="23" spans="2:10" s="34" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B23" s="70">
+        <v>4</v>
+      </c>
+      <c r="C23" s="65" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="35" t="s">
         <v>89</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="36" t="s">
         <v>91</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B24" s="66"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="11"/>
       <c r="E24" s="17" t="s">
         <v>110</v>
@@ -11955,8 +11958,8 @@
       <c r="J24" s="15"/>
     </row>
     <row r="25" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B25" s="66"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
         <v>112</v>
@@ -11974,8 +11977,8 @@
       <c r="J25" s="15"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="34"/>
-      <c r="C26" s="64"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
         <v>114</v>
@@ -11993,8 +11996,8 @@
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B27" s="34"/>
-      <c r="C27" s="64"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
         <v>111</v>
@@ -12012,8 +12015,8 @@
       <c r="J27" s="15"/>
     </row>
     <row r="28" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B28" s="34"/>
-      <c r="C28" s="64"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
         <v>115</v>
@@ -12030,30 +12033,32 @@
       <c r="I28" s="14"/>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="2:10" s="35" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B29" s="34"/>
-      <c r="C29" s="64" t="s">
+    <row r="29" spans="2:10" s="34" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B29" s="64">
+        <v>5</v>
+      </c>
+      <c r="C29" s="65" t="s">
         <v>117</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="35" t="s">
         <v>89</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="36" t="s">
         <v>91</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="15"/>
     </row>
     <row r="30" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B30" s="34"/>
-      <c r="C30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
         <v>118</v>
@@ -12071,8 +12076,8 @@
       <c r="J30" s="15"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="34"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
         <v>119</v>
@@ -12090,8 +12095,8 @@
       <c r="J31" s="15"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="34"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
         <v>120</v>
@@ -12109,8 +12114,10 @@
       <c r="J32" s="15"/>
     </row>
     <row r="33" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B33" s="34"/>
-      <c r="C33" s="64" t="s">
+      <c r="B33" s="64">
+        <v>6</v>
+      </c>
+      <c r="C33" s="65" t="s">
         <v>123</v>
       </c>
       <c r="D33" s="11"/>
@@ -12130,8 +12137,8 @@
       <c r="J33" s="15"/>
     </row>
     <row r="34" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B34" s="34"/>
-      <c r="C34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
         <v>124</v>
@@ -12149,8 +12156,8 @@
       <c r="J34" s="15"/>
     </row>
     <row r="35" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B35" s="34"/>
-      <c r="C35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
         <v>125</v>
@@ -12168,8 +12175,8 @@
       <c r="J35" s="15"/>
     </row>
     <row r="36" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B36" s="34"/>
-      <c r="C36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
         <v>126</v>
@@ -12187,8 +12194,8 @@
       <c r="J36" s="15"/>
     </row>
     <row r="37" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B37" s="34"/>
-      <c r="C37" s="64"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
         <v>111</v>
@@ -12205,28 +12212,28 @@
       <c r="I37" s="14"/>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="2:10" s="35" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B38" s="34"/>
-      <c r="C38" s="64"/>
+    <row r="38" spans="2:10" s="34" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="35" t="s">
         <v>89</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="H38" s="36" t="s">
         <v>91</v>
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
     </row>
     <row r="39" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B39" s="34"/>
-      <c r="C39" s="64"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
         <v>127</v>
@@ -12244,8 +12251,8 @@
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B40" s="34"/>
-      <c r="C40" s="64"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
         <v>128</v>
@@ -12263,8 +12270,8 @@
       <c r="J40" s="15"/>
     </row>
     <row r="41" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B41" s="34"/>
-      <c r="C41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
         <v>129</v>
@@ -12282,8 +12289,8 @@
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B42" s="34"/>
-      <c r="C42" s="64"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
         <v>130</v>
@@ -12301,8 +12308,8 @@
       <c r="J42" s="15"/>
     </row>
     <row r="43" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B43" s="34"/>
-      <c r="C43" s="64"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
         <v>131</v>
@@ -12320,8 +12327,8 @@
       <c r="J43" s="15"/>
     </row>
     <row r="44" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B44" s="34"/>
-      <c r="C44" s="64"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
         <v>132</v>
@@ -12338,47 +12345,49 @@
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="2:10" s="35" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B45" s="34"/>
-      <c r="C45" s="64"/>
+    <row r="45" spans="2:10" s="34" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B45" s="64"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="35" t="s">
         <v>89</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="36" t="s">
         <v>91</v>
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="2:10" s="35" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B46" s="34"/>
-      <c r="C46" s="64"/>
+    <row r="46" spans="2:10" s="34" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="35" t="s">
         <v>89</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="37" t="s">
+      <c r="H46" s="36" t="s">
         <v>91</v>
       </c>
       <c r="I46" s="14"/>
       <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B47" s="34"/>
-      <c r="C47" s="64" t="s">
+      <c r="B47" s="64">
+        <v>7</v>
+      </c>
+      <c r="C47" s="65" t="s">
         <v>133</v>
       </c>
       <c r="D47" s="11"/>
@@ -12398,8 +12407,8 @@
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B48" s="34"/>
-      <c r="C48" s="64"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
         <v>135</v>
@@ -12417,8 +12426,8 @@
       <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B49" s="34"/>
-      <c r="C49" s="64"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
         <v>111</v>
@@ -12436,8 +12445,8 @@
       <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B50" s="34"/>
-      <c r="C50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
         <v>136</v>
@@ -12455,8 +12464,10 @@
       <c r="J50" s="15"/>
     </row>
     <row r="51" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B51" s="34"/>
-      <c r="C51" s="64" t="s">
+      <c r="B51" s="64">
+        <v>8</v>
+      </c>
+      <c r="C51" s="65" t="s">
         <v>137</v>
       </c>
       <c r="D51" s="11"/>
@@ -12476,8 +12487,8 @@
       <c r="J51" s="15"/>
     </row>
     <row r="52" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B52" s="34"/>
-      <c r="C52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
         <v>139</v>
@@ -12495,8 +12506,8 @@
       <c r="J52" s="15"/>
     </row>
     <row r="53" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B53" s="34"/>
-      <c r="C53" s="64"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
         <v>140</v>
@@ -12514,8 +12525,8 @@
       <c r="J53" s="15"/>
     </row>
     <row r="54" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B54" s="34"/>
-      <c r="C54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
         <v>141</v>
@@ -12533,8 +12544,8 @@
       <c r="J54" s="15"/>
     </row>
     <row r="55" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B55" s="34"/>
-      <c r="C55" s="64"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
         <v>142</v>
@@ -12552,8 +12563,8 @@
       <c r="J55" s="15"/>
     </row>
     <row r="56" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B56" s="34"/>
-      <c r="C56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="65"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
         <v>111</v>
@@ -12571,8 +12582,8 @@
       <c r="J56" s="15"/>
     </row>
     <row r="57" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B57" s="34"/>
-      <c r="C57" s="64"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="65"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
         <v>136</v>
@@ -12590,8 +12601,8 @@
       <c r="J57" s="15"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="34"/>
-      <c r="C58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="65"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
         <v>145</v>
@@ -12609,8 +12620,8 @@
       <c r="J58" s="15"/>
     </row>
     <row r="59" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B59" s="34"/>
-      <c r="C59" s="64"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="65"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
         <v>143</v>
@@ -12628,8 +12639,8 @@
       <c r="J59" s="15"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="34"/>
-      <c r="C60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="11"/>
       <c r="E60" s="33" t="s">
         <v>146</v>
@@ -12647,8 +12658,8 @@
       <c r="J60" s="15"/>
     </row>
     <row r="61" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B61" s="34"/>
-      <c r="C61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="65"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
         <v>147</v>
@@ -12666,8 +12677,8 @@
       <c r="J61" s="15"/>
     </row>
     <row r="62" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B62" s="34"/>
-      <c r="C62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
         <v>148</v>
@@ -12685,8 +12696,8 @@
       <c r="J62" s="15"/>
     </row>
     <row r="63" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B63" s="34"/>
-      <c r="C63" s="64"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
         <v>149</v>
@@ -12704,8 +12715,8 @@
       <c r="J63" s="15"/>
     </row>
     <row r="64" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B64" s="65"/>
-      <c r="C64" s="72"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="69"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19" t="s">
         <v>150</v>
@@ -21146,12 +21157,17 @@
       <c r="J999" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="C29:C32"/>
+  <mergeCells count="28">
+    <mergeCell ref="C33:C46"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="C51:C64"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B64"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:J4"/>
@@ -21164,10 +21180,12 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="C7:C15"/>
-    <mergeCell ref="C33:C46"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="C51:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
